--- a/translation/xlsx/staffroom.xlsx
+++ b/translation/xlsx/staffroom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="182">
   <si>
     <t>actor</t>
   </si>
@@ -378,7 +378,7 @@
     <t>Our modern era is better than any era before it.</t>
   </si>
   <si>
-    <t>헤이세이(* 용기사07이 이 글을 쓸 당시는 2005년 중순이다.)는 좋은 세상이 되었습니다.</t>
+    <t>&lt;size=-8&gt;헤이세이(* 용기사07이 이 글을 쓸 당시는 2005년 중순이다.)는 좋은 세상이 되었습니다.</t>
   </si>
   <si>
     <t>헤이세이(平成)는 좋은 세상이 되었습니다.</t>
@@ -1259,7 +1259,7 @@
       <c r="C31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -1455,6 +1455,9 @@
       <c r="C45" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="D45" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="E45" s="1" t="s">
         <v>178</v>
       </c>
@@ -1464,6 +1467,9 @@
         <v>179</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E46" s="1" t="s">

--- a/translation/xlsx/staffroom.xlsx
+++ b/translation/xlsx/staffroom.xlsx
@@ -246,7 +246,7 @@
     <t>However, if you actually committed a murder, it wouldn't be easy to pay for the sin.</t>
   </si>
   <si>
-    <t>하지만 현실적으로 살인을 저질렀다면 쉽게 보상할 수 있는 죄가 아닙니다.</t>
+    <t>하지만 현실적으로 살인을 저질렀다면 그 죄는 쉽게 보상할 수 없습니다.</t>
   </si>
   <si>
     <t>하지만 현실적으로 '살인'을 저질렀다면 쉽게 보상할 수 있는 죄가 아닙니다.</t>
@@ -1091,7 +1091,7 @@
       <c r="C19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E19" s="1" t="s">
